--- a/爬取信息总汇/需爬虫的网址汇总.xlsx
+++ b/爬取信息总汇/需爬虫的网址汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SDXH_Work_Proj\auto_detect_download\爬取信息总汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B744584-8C55-4807-980B-CA112EFEB591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0001DE4D-87EB-4473-A8C6-70A50D734C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A3:D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
